--- a/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="214">
   <si>
     <t>撰写人：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,14 +101,6 @@
   </si>
   <si>
     <t>数据未清空成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品数量选择范围应在11000之内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品数量选择范围超过后台设置的数值范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -978,14 +970,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.点击客房用品-客房洗漱用品-牙膏页面
-2.点击图片中的查看按钮，成功跳转至牙膏商品详情页面
-3.选择系统中存在的牙膏"产品重量，膏体颜色，香型，保质期（月）"
-4.选择数量为50000，点击立即购买按钮，成功跳转至商品结算页面
-（PS：其它商品数量bug同上）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.点击布草服饰-床上用品-床单
 2.点击图片中的查看按钮，成功跳转至床单商品详情页面
 3.选择系统中存在的床单"产品品牌，企业定制品牌，外观颜色，适合床宽，长*宽（厘米），产品材质（通用属性），面料（含巾类）织造工艺（通用属性），面料支数（通用属性），面料密度（通用属性）"
@@ -1031,6 +1015,30 @@
   </si>
   <si>
     <t>退款成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击客房用品-客房洗漱用品-牙膏页面
+2.点击图片中的查看按钮，成功跳转至牙膏商品详情页面
+3.选择系统中存在的牙膏"产品重量，膏体颜色，香型，保质期（月）"
+4.选择数量为50000，点击立即购买按钮，成功跳转至商品结算页面
+（PS：其它商品数量bug同上）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量选择范围应在11000之内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量选择范围超过后台设置的数值范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据未清空成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据删除成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1647,9 +1655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,17 +1688,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>4</v>
@@ -1704,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>14</v>
@@ -1727,19 +1735,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="2" t="s">
@@ -1753,13 +1761,13 @@
       <c r="B7" s="24"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16"/>
@@ -1771,13 +1779,13 @@
       <c r="B8" s="25"/>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
@@ -1791,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>15</v>
@@ -1809,13 +1817,13 @@
       <c r="B10" s="25"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1827,7 +1835,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="16"/>
       <c r="D11" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>17</v>
@@ -1845,7 +1853,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
@@ -1863,7 +1871,7 @@
       <c r="B13" s="24"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>21</v>
@@ -1881,13 +1889,13 @@
       <c r="B14" s="25"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1899,13 +1907,13 @@
       <c r="B15" s="24"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1917,13 +1925,13 @@
       <c r="B16" s="25"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1934,67 +1942,67 @@
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="19" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="19" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" s="19" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>18</v>
@@ -2002,14 +2010,14 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="19" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>20</v>
@@ -2020,14 +2028,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" s="19" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="2"/>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>21</v>
@@ -2038,20 +2046,20 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2062,10 +2070,10 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2078,10 +2086,10 @@
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2094,16 +2102,16 @@
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2115,13 +2123,13 @@
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -2133,10 +2141,10 @@
       <c r="B28" s="25"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>18</v>
@@ -2151,7 +2159,7 @@
       <c r="B29" s="24"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>20</v>
@@ -2169,7 +2177,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="2"/>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>21</v>
@@ -2187,13 +2195,13 @@
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2204,10 +2212,10 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2220,10 +2228,10 @@
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -2236,10 +2244,10 @@
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2252,10 +2260,10 @@
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -2268,10 +2276,10 @@
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2284,10 +2292,10 @@
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -2300,10 +2308,10 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2316,10 +2324,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -2332,10 +2340,10 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2348,10 +2356,10 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -2364,10 +2372,10 @@
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2380,10 +2388,10 @@
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -2396,10 +2404,10 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2412,10 +2420,10 @@
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2428,10 +2436,10 @@
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2444,10 +2452,10 @@
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2460,10 +2468,10 @@
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2476,10 +2484,10 @@
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -2492,10 +2500,10 @@
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2508,10 +2516,10 @@
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2524,10 +2532,10 @@
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2540,10 +2548,10 @@
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -2556,10 +2564,10 @@
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2572,10 +2580,10 @@
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -2588,10 +2596,10 @@
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -2604,10 +2612,10 @@
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -2620,16 +2628,16 @@
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2641,13 +2649,13 @@
       <c r="B59" s="24"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -2659,13 +2667,13 @@
       <c r="B60" s="25"/>
       <c r="C60" s="2"/>
       <c r="D60" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2677,7 +2685,7 @@
       <c r="B61" s="24"/>
       <c r="C61" s="16"/>
       <c r="D61" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>17</v>
@@ -2695,7 +2703,7 @@
       <c r="B62" s="25"/>
       <c r="C62" s="2"/>
       <c r="D62" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
@@ -2713,10 +2721,10 @@
       <c r="B63" s="24"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>21</v>
@@ -2731,13 +2739,13 @@
       <c r="B64" s="25"/>
       <c r="C64" s="2"/>
       <c r="D64" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2749,13 +2757,13 @@
       <c r="B65" s="24"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
@@ -2767,13 +2775,13 @@
       <c r="B66" s="25"/>
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2784,10 +2792,10 @@
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -2800,10 +2808,10 @@
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -2816,10 +2824,10 @@
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -2832,10 +2840,10 @@
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2848,10 +2856,10 @@
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
@@ -2864,10 +2872,10 @@
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2880,10 +2888,10 @@
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -2896,10 +2904,10 @@
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2912,10 +2920,10 @@
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
@@ -2928,10 +2936,10 @@
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2944,10 +2952,10 @@
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
@@ -2960,10 +2968,10 @@
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2976,10 +2984,10 @@
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -2992,10 +3000,10 @@
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3008,10 +3016,10 @@
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -3024,10 +3032,10 @@
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -3040,10 +3048,10 @@
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -3056,10 +3064,10 @@
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -3072,10 +3080,10 @@
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -3088,16 +3096,16 @@
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="F86" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3109,13 +3117,13 @@
       <c r="B87" s="24"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="F87" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
@@ -3127,13 +3135,13 @@
       <c r="B88" s="25"/>
       <c r="C88" s="2"/>
       <c r="D88" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3145,13 +3153,13 @@
       <c r="B89" s="24"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -3162,10 +3170,10 @@
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -3178,10 +3186,10 @@
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -3194,10 +3202,10 @@
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -3210,10 +3218,10 @@
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -3226,10 +3234,10 @@
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -3242,10 +3250,10 @@
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -3258,10 +3266,10 @@
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -3274,10 +3282,10 @@
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -3290,10 +3298,10 @@
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -3306,10 +3314,10 @@
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -3322,10 +3330,10 @@
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -3338,10 +3346,10 @@
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -3354,10 +3362,10 @@
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -3370,10 +3378,10 @@
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
@@ -3386,10 +3394,10 @@
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -3402,10 +3410,10 @@
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -3418,10 +3426,10 @@
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -3434,10 +3442,10 @@
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -3450,10 +3458,10 @@
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -3466,10 +3474,10 @@
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -3482,10 +3490,10 @@
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -3498,10 +3506,10 @@
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -3514,10 +3522,10 @@
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -3530,10 +3538,10 @@
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
@@ -3546,10 +3554,10 @@
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -3562,10 +3570,10 @@
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -3578,10 +3586,10 @@
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -3594,10 +3602,10 @@
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -3610,10 +3618,10 @@
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -3626,10 +3634,10 @@
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
@@ -3642,10 +3650,10 @@
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -3658,10 +3666,10 @@
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -3674,10 +3682,10 @@
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -3690,10 +3698,10 @@
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
@@ -3706,10 +3714,10 @@
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -3722,10 +3730,10 @@
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -3738,10 +3746,10 @@
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -3754,10 +3762,10 @@
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
@@ -3770,10 +3778,10 @@
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -3786,10 +3794,10 @@
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
@@ -3802,10 +3810,10 @@
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -3818,10 +3826,10 @@
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
@@ -3834,10 +3842,10 @@
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -3850,10 +3858,10 @@
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
@@ -3866,10 +3874,10 @@
       </c>
       <c r="B134" s="25"/>
       <c r="C134" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -3882,10 +3890,10 @@
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
@@ -3898,10 +3906,10 @@
       </c>
       <c r="B136" s="25"/>
       <c r="C136" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -3914,10 +3922,10 @@
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
@@ -3930,10 +3938,10 @@
       </c>
       <c r="B138" s="25"/>
       <c r="C138" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -3946,10 +3954,10 @@
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -3962,10 +3970,10 @@
       </c>
       <c r="B140" s="25"/>
       <c r="C140" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -3978,10 +3986,10 @@
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
@@ -3994,10 +4002,10 @@
       </c>
       <c r="B142" s="25"/>
       <c r="C142" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -4010,10 +4018,10 @@
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
@@ -4026,10 +4034,10 @@
       </c>
       <c r="B144" s="25"/>
       <c r="C144" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -4042,10 +4050,10 @@
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
@@ -4058,10 +4066,10 @@
       </c>
       <c r="B146" s="25"/>
       <c r="C146" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -4074,10 +4082,10 @@
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
@@ -4090,10 +4098,10 @@
       </c>
       <c r="B148" s="25"/>
       <c r="C148" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -4106,16 +4114,16 @@
       </c>
       <c r="B149" s="43"/>
       <c r="C149" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="F149" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -4127,13 +4135,13 @@
       <c r="B150" s="44"/>
       <c r="C150" s="45"/>
       <c r="D150" s="46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E150" s="46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F150" s="46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>

--- a/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
@@ -1666,8 +1666,8 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城 (SKU选择下单-王倩).xlsx
@@ -1665,9 +1665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
